--- a/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK.xlsx
+++ b/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK.xlsx
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.02020630117878606</v>
+        <v>-0.6810413201961252</v>
       </c>
       <c r="C2">
-        <v>0.009863792782115853</v>
+        <v>0.09369322128178527</v>
       </c>
       <c r="D2">
-        <v>0.008443442869534815</v>
+        <v>0.1339013058120137</v>
       </c>
       <c r="E2">
-        <v>0.01655893997348683</v>
+        <v>0.6546168361659155</v>
       </c>
       <c r="F2">
-        <v>0.01548450312142308</v>
+        <v>0.4329774150943037</v>
       </c>
       <c r="G2">
-        <v>0.01651554992968879</v>
+        <v>0.3841293108087116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.270542318907327</v>
+        <v>-1.306132646055111</v>
       </c>
       <c r="C3">
-        <v>0.3717648124883187</v>
+        <v>0.5755251930836941</v>
       </c>
       <c r="D3">
-        <v>0.3841986155121777</v>
+        <v>0.006352792231802668</v>
       </c>
       <c r="E3">
-        <v>1.020849631915967</v>
+        <v>0.9046582558171379</v>
       </c>
       <c r="F3">
-        <v>0.5976053735155407</v>
+        <v>0.7301014344891062</v>
       </c>
       <c r="G3">
-        <v>0.499545487840677</v>
+        <v>0.7692616322519327</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.002199685490173807</v>
+        <v>-0.002277964272473523</v>
       </c>
       <c r="C4">
-        <v>0.001677981898686172</v>
+        <v>0.001007788683943023</v>
       </c>
       <c r="D4">
-        <v>0.0006413011048947259</v>
+        <v>0.001225995175244594</v>
       </c>
       <c r="E4">
-        <v>0.001826199144676542</v>
+        <v>0.001905587897466044</v>
       </c>
       <c r="F4">
-        <v>0.001593491537733449</v>
+        <v>0.001651223222755311</v>
       </c>
       <c r="G4">
-        <v>0.001278637207306977</v>
+        <v>0.001506613197196334</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-2.681031988474779</v>
+        <v>-0.02266147970956781</v>
       </c>
       <c r="C5">
-        <v>0.394269205362648</v>
+        <v>0.0117653450893486</v>
       </c>
       <c r="D5">
-        <v>-0.4927397167215024</v>
+        <v>0.008724693521322406</v>
       </c>
       <c r="E5">
-        <v>1.951721550963802</v>
+        <v>0.01721368981327178</v>
       </c>
       <c r="F5">
-        <v>1.472659118195184</v>
+        <v>0.01718781452624025</v>
       </c>
       <c r="G5">
-        <v>1.045733097663803</v>
+        <v>0.01629158619698674</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-1.502957362417023</v>
+        <v>-0.6032130676830751</v>
       </c>
       <c r="C6">
-        <v>0.4517804976252504</v>
+        <v>0.2594735398923753</v>
       </c>
       <c r="D6">
-        <v>-0.1386516318271212</v>
+        <v>0.1578012713314776</v>
       </c>
       <c r="E6">
-        <v>1.427211216999126</v>
+        <v>0.720654919783478</v>
       </c>
       <c r="F6">
-        <v>0.5625701626819422</v>
+        <v>0.3441835601193007</v>
       </c>
       <c r="G6">
-        <v>0.6527711250375301</v>
+        <v>0.214564476536228</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.03159831404051182</v>
+        <v>-0.02337961863703262</v>
       </c>
       <c r="C7">
-        <v>0.01161366648961629</v>
+        <v>0.01333769482981565</v>
       </c>
       <c r="D7">
-        <v>0.01711755996290333</v>
+        <v>0.008888205167911537</v>
       </c>
       <c r="E7">
-        <v>0.02105124380806827</v>
+        <v>0.01731613660907821</v>
       </c>
       <c r="F7">
-        <v>0.01830780408695998</v>
+        <v>0.01640937147205719</v>
       </c>
       <c r="G7">
-        <v>0.01661423145648673</v>
+        <v>0.0166286710874372</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,22 +558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.02516517818764447</v>
+        <v>-0.5886037573206659</v>
       </c>
       <c r="C8">
-        <v>0.0136570467911805</v>
+        <v>0.1708382035250458</v>
       </c>
       <c r="D8">
-        <v>0.01319347535943579</v>
+        <v>0.1895683620869451</v>
       </c>
       <c r="E8">
-        <v>0.01485462112523809</v>
+        <v>0.3534903020276893</v>
       </c>
       <c r="F8">
-        <v>0.01634421283400392</v>
+        <v>0.3762509583259426</v>
       </c>
       <c r="G8">
-        <v>0.01844426252218683</v>
+        <v>0.4045382109180709</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -581,22 +581,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-2.014756241636376</v>
+        <v>-0.02362454324476247</v>
       </c>
       <c r="C9">
-        <v>0.6506364804391462</v>
+        <v>0.01294910325303369</v>
       </c>
       <c r="D9">
-        <v>-0.08290377725776001</v>
+        <v>0.01005271024487571</v>
       </c>
       <c r="E9">
-        <v>1.640940769748358</v>
+        <v>0.01814719947222764</v>
       </c>
       <c r="F9">
-        <v>1.266160443871067</v>
+        <v>0.01707430817047522</v>
       </c>
       <c r="G9">
-        <v>0.2317389163798162</v>
+        <v>0.0150757678741239</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -604,22 +604,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-1.245380238107265</v>
+        <v>-0.6096934122967426</v>
       </c>
       <c r="C10">
-        <v>0.5764078844843492</v>
+        <v>0.2124070136281053</v>
       </c>
       <c r="D10">
-        <v>0.3033751103568219</v>
+        <v>0.1654522906725274</v>
       </c>
       <c r="E10">
-        <v>0.7531965661412139</v>
+        <v>0.4067723209350544</v>
       </c>
       <c r="F10">
-        <v>0.5844284067517244</v>
+        <v>0.4109475497495242</v>
       </c>
       <c r="G10">
-        <v>0.8830427839885587</v>
+        <v>0.3231969692448214</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -627,22 +627,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-1.971761387746244</v>
+        <v>-1.849816152672795</v>
       </c>
       <c r="C11">
-        <v>0.4515043678333852</v>
+        <v>1.143034971324077</v>
       </c>
       <c r="D11">
-        <v>0.09063559964000929</v>
+        <v>-0.1829486706525728</v>
       </c>
       <c r="E11">
-        <v>1.009674676999191</v>
+        <v>1.700100204859499</v>
       </c>
       <c r="F11">
-        <v>1.127312932239167</v>
+        <v>1.066463390860062</v>
       </c>
       <c r="G11">
-        <v>1.024334898019871</v>
+        <v>0.2536553872784693</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -650,22 +650,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-1.414149478767454</v>
+        <v>-0.002320406115136963</v>
       </c>
       <c r="C12">
-        <v>0.5931381684289099</v>
+        <v>0.001272928968655054</v>
       </c>
       <c r="D12">
-        <v>-0.04836134648952565</v>
+        <v>0.001202388637477243</v>
       </c>
       <c r="E12">
-        <v>1.379969679425455</v>
+        <v>0.001765866894156232</v>
       </c>
       <c r="F12">
-        <v>0.5192326512479588</v>
+        <v>0.001597745680008191</v>
       </c>
       <c r="G12">
-        <v>0.6999275630274335</v>
+        <v>0.001617125391849368</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -673,22 +673,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.585086877604144</v>
+        <v>-0.001957965029242927</v>
       </c>
       <c r="C13">
-        <v>0.2950439318875533</v>
+        <v>0.001552948031712915</v>
       </c>
       <c r="D13">
-        <v>-0.04246681941063944</v>
+        <v>0.000679882193476793</v>
       </c>
       <c r="E13">
-        <v>1.611829466033744</v>
+        <v>0.001354322758934827</v>
       </c>
       <c r="F13">
-        <v>0.9996038559243045</v>
+        <v>0.001537499798568464</v>
       </c>
       <c r="G13">
-        <v>0.3785457674938686</v>
+        <v>0.001577897893225065</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -696,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.002583976768007564</v>
+        <v>-1.222383463159795</v>
       </c>
       <c r="C14">
-        <v>0.001123508604507666</v>
+        <v>0.4211665995412129</v>
       </c>
       <c r="D14">
-        <v>0.00123443808245455</v>
+        <v>-0.09407664449467984</v>
       </c>
       <c r="E14">
-        <v>0.00195631648978805</v>
+        <v>1.139051148853614</v>
       </c>
       <c r="F14">
-        <v>0.001823609817606784</v>
+        <v>0.5251239119106358</v>
       </c>
       <c r="G14">
-        <v>0.001626514028246813</v>
+        <v>0.7289165795710657</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -719,22 +719,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-2.093997130503624</v>
+        <v>-0.9847431152956462</v>
       </c>
       <c r="C15">
-        <v>-0.0677509537116345</v>
+        <v>0.4478045083038251</v>
       </c>
       <c r="D15">
-        <v>-0.02649612668135699</v>
+        <v>0.1276678674074562</v>
       </c>
       <c r="E15">
-        <v>2.038570994966064</v>
+        <v>0.713931315903936</v>
       </c>
       <c r="F15">
-        <v>0.8692193139220901</v>
+        <v>0.7548138995782716</v>
       </c>
       <c r="G15">
-        <v>0.6680162229666519</v>
+        <v>0.6181128394020663</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -742,22 +742,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.8076576796892505</v>
+        <v>-1.624641819447451</v>
       </c>
       <c r="C16">
-        <v>0.270518656614894</v>
+        <v>0.8946105733075417</v>
       </c>
       <c r="D16">
-        <v>0.1938442605979006</v>
+        <v>0.3421454379599151</v>
       </c>
       <c r="E16">
-        <v>0.5852624980781435</v>
+        <v>1.400926484346888</v>
       </c>
       <c r="F16">
-        <v>0.5215343907066052</v>
+        <v>0.7358438410447549</v>
       </c>
       <c r="G16">
-        <v>0.3461993269642</v>
+        <v>0.4438093038948837</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -765,22 +765,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.02660460515975777</v>
+        <v>-1.278659588126781</v>
       </c>
       <c r="C17">
-        <v>0.01519627456739275</v>
+        <v>1.08622156695365</v>
       </c>
       <c r="D17">
-        <v>0.01315544618758502</v>
+        <v>-0.01966299356111171</v>
       </c>
       <c r="E17">
-        <v>0.01784238072278612</v>
+        <v>1.223925085493502</v>
       </c>
       <c r="F17">
-        <v>0.01473447722405188</v>
+        <v>0.6557404731214946</v>
       </c>
       <c r="G17">
-        <v>0.01770257274294595</v>
+        <v>0.3575748468489215</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -788,22 +788,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.02003770958256599</v>
+        <v>-1.653611902289426</v>
       </c>
       <c r="C18">
-        <v>0.00882948857088689</v>
+        <v>0.7691038786553311</v>
       </c>
       <c r="D18">
-        <v>0.01045394307168315</v>
+        <v>0.1606008366927591</v>
       </c>
       <c r="E18">
-        <v>0.01473540371092806</v>
+        <v>1.49460119734475</v>
       </c>
       <c r="F18">
-        <v>0.0161192976816256</v>
+        <v>0.9673274708649064</v>
       </c>
       <c r="G18">
-        <v>0.01685327719498567</v>
+        <v>0.03971184845167576</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -811,22 +811,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-2.110462421420904</v>
+        <v>-1.651430519506357</v>
       </c>
       <c r="C19">
-        <v>0.08464712040799713</v>
+        <v>0.6250422636405113</v>
       </c>
       <c r="D19">
-        <v>-0.6890755259049284</v>
+        <v>0.1454634396323861</v>
       </c>
       <c r="E19">
-        <v>1.903025686122841</v>
+        <v>1.493363520153961</v>
       </c>
       <c r="F19">
-        <v>0.5929058072502186</v>
+        <v>0.8941501347607694</v>
       </c>
       <c r="G19">
-        <v>1.612020527813766</v>
+        <v>0.1614334992099914</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -834,22 +834,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.002076371157364643</v>
+        <v>-1.677287679029738</v>
       </c>
       <c r="C20">
-        <v>0.00124808975205637</v>
+        <v>0.5147809301203367</v>
       </c>
       <c r="D20">
-        <v>0.0009906603467228058</v>
+        <v>-0.1770687653418857</v>
       </c>
       <c r="E20">
-        <v>0.00195269173573885</v>
+        <v>1.211885749130019</v>
       </c>
       <c r="F20">
-        <v>0.001621405594103671</v>
+        <v>0.8251050274484946</v>
       </c>
       <c r="G20">
-        <v>0.001077663769114527</v>
+        <v>1.038102847356124</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -857,22 +857,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-1.369585293879745</v>
+        <v>-1.067299567402767</v>
       </c>
       <c r="C21">
-        <v>0.4994078828707055</v>
+        <v>0.674245092737466</v>
       </c>
       <c r="D21">
-        <v>0.2060880225679387</v>
+        <v>0.156707958478493</v>
       </c>
       <c r="E21">
-        <v>1.109925978512178</v>
+        <v>1.138873238342991</v>
       </c>
       <c r="F21">
-        <v>0.6878573257215853</v>
+        <v>0.4065497734430145</v>
       </c>
       <c r="G21">
-        <v>0.5706590500801093</v>
+        <v>0.4020216084938981</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -880,22 +880,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-1.465972333678526</v>
+        <v>-0.02056559886841465</v>
       </c>
       <c r="C22">
-        <v>0.2261155446789157</v>
+        <v>0.01288855242566968</v>
       </c>
       <c r="D22">
-        <v>0.1285052990777169</v>
+        <v>0.009914257734092812</v>
       </c>
       <c r="E22">
-        <v>0.6452172181019979</v>
+        <v>0.01780974724995701</v>
       </c>
       <c r="F22">
-        <v>0.9751455125026844</v>
+        <v>0.01528363274399868</v>
       </c>
       <c r="G22">
-        <v>1.078220553265296</v>
+        <v>0.01258764075907455</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-1.956966806892241</v>
+        <v>-1.301110860965978</v>
       </c>
       <c r="C23">
-        <v>0.06356149659813438</v>
+        <v>0.7643190564984262</v>
       </c>
       <c r="D23">
-        <v>-0.03338128242829882</v>
+        <v>-0.1154757931688364</v>
       </c>
       <c r="E23">
-        <v>0.819036444024891</v>
+        <v>1.425674410020212</v>
       </c>
       <c r="F23">
-        <v>0.9897284714582223</v>
+        <v>1.183860360653091</v>
       </c>
       <c r="G23">
-        <v>1.547858714633146</v>
+        <v>0.1316316088340925</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -926,22 +926,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.664668730728285</v>
+        <v>-0.01613910514557333</v>
       </c>
       <c r="C24">
-        <v>0.222185688878045</v>
+        <v>0.01175405773877768</v>
       </c>
       <c r="D24">
-        <v>0.1020506002270495</v>
+        <v>0.007499282969651087</v>
       </c>
       <c r="E24">
-        <v>0.6339359436935432</v>
+        <v>0.01454851637037142</v>
       </c>
       <c r="F24">
-        <v>0.4623613164858356</v>
+        <v>0.01401176983968606</v>
       </c>
       <c r="G24">
-        <v>0.3306852949442178</v>
+        <v>0.01283351978429919</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -949,22 +949,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.5122777123964818</v>
+        <v>-3.285256158153058</v>
       </c>
       <c r="C25">
-        <v>0.1691824294699554</v>
+        <v>-0.4740488021647253</v>
       </c>
       <c r="D25">
-        <v>0.2861976159549335</v>
+        <v>-0.7321963683592768</v>
       </c>
       <c r="E25">
-        <v>0.3150826723815044</v>
+        <v>3.250019122455559</v>
       </c>
       <c r="F25">
-        <v>0.3520912314633578</v>
+        <v>1.625333016824169</v>
       </c>
       <c r="G25">
-        <v>0.3096768018740189</v>
+        <v>0.4323980117298309</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -972,22 +972,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.02730434866152623</v>
+        <v>-0.02524926513179401</v>
       </c>
       <c r="C26">
-        <v>0.01018935368810026</v>
+        <v>0.009333926427530894</v>
       </c>
       <c r="D26">
-        <v>0.01281199578229485</v>
+        <v>0.0154665069206003</v>
       </c>
       <c r="E26">
-        <v>0.01604653454224228</v>
+        <v>0.01906520220045005</v>
       </c>
       <c r="F26">
-        <v>0.01882552615469161</v>
+        <v>0.01570663158837638</v>
       </c>
       <c r="G26">
-        <v>0.02014098627016395</v>
+        <v>0.01588427524716448</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -995,22 +995,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.4855038711982132</v>
+        <v>-0.7187433611332459</v>
       </c>
       <c r="C27">
-        <v>0.2481262778574003</v>
+        <v>0.3203959216395661</v>
       </c>
       <c r="D27">
-        <v>0.1194823827599151</v>
+        <v>0.1112681651482949</v>
       </c>
       <c r="E27">
-        <v>0.227311404998566</v>
+        <v>0.648619993143747</v>
       </c>
       <c r="F27">
-        <v>0.375407646281079</v>
+        <v>0.3787890086799045</v>
       </c>
       <c r="G27">
-        <v>0.3750494485524019</v>
+        <v>0.3501199854781875</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1018,22 +1018,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-1.678190905528598</v>
+        <v>-3.185668466583341</v>
       </c>
       <c r="C28">
-        <v>0.7159265881161522</v>
+        <v>0.6754957598298662</v>
       </c>
       <c r="D28">
-        <v>-0.4021178505202665</v>
+        <v>0.4033443354423999</v>
       </c>
       <c r="E28">
-        <v>1.73746066179043</v>
+        <v>0.8486288970291176</v>
       </c>
       <c r="F28">
-        <v>1.039812397098369</v>
+        <v>1.681829463049897</v>
       </c>
       <c r="G28">
-        <v>0.5131579810760134</v>
+        <v>1.780383912914111</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1041,22 +1041,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.228849986330994</v>
+        <v>-1.224339113242669</v>
       </c>
       <c r="C29">
-        <v>0.5363641740904368</v>
+        <v>0.5947871679553721</v>
       </c>
       <c r="D29">
-        <v>-0.1825052917796031</v>
+        <v>-0.04369299789403562</v>
       </c>
       <c r="E29">
-        <v>1.373123982503647</v>
+        <v>1.184441098326433</v>
       </c>
       <c r="F29">
-        <v>0.8442444042520894</v>
+        <v>0.5900083316994849</v>
       </c>
       <c r="G29">
-        <v>0.2037447854655808</v>
+        <v>0.5117549811460627</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1064,22 +1064,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.5393676972211837</v>
+        <v>-1.022965427361954</v>
       </c>
       <c r="C30">
-        <v>0.2640355833325874</v>
+        <v>0.7116875693520501</v>
       </c>
       <c r="D30">
-        <v>0.1823875599417281</v>
+        <v>-0.1499552341820131</v>
       </c>
       <c r="E30">
-        <v>0.5860117256073658</v>
+        <v>1.242107973933281</v>
       </c>
       <c r="F30">
-        <v>0.408785216951798</v>
+        <v>0.5920192287359398</v>
       </c>
       <c r="G30">
-        <v>0.2093810388341771</v>
+        <v>0.4477971994091379</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1087,22 +1087,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-1.533043442790455</v>
+        <v>-0.6092008933688541</v>
       </c>
       <c r="C31">
-        <v>0.7672212298760275</v>
+        <v>0.3369128027348477</v>
       </c>
       <c r="D31">
-        <v>0.2651501752070009</v>
+        <v>0.2098434873433858</v>
       </c>
       <c r="E31">
-        <v>1.33266395763192</v>
+        <v>0.5471175740248447</v>
       </c>
       <c r="F31">
-        <v>0.6578183811894628</v>
+        <v>0.3671318915570065</v>
       </c>
       <c r="G31">
-        <v>0.3857732431616577</v>
+        <v>0.3302123148359327</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1110,22 +1110,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.001945623689629663</v>
+        <v>-0.4978762109964914</v>
       </c>
       <c r="C32">
-        <v>0.0009374968167468377</v>
+        <v>0.2435985933498478</v>
       </c>
       <c r="D32">
-        <v>0.0008029200233897766</v>
+        <v>0.2386061502805396</v>
       </c>
       <c r="E32">
-        <v>0.001498677149016177</v>
+        <v>0.4355950854087787</v>
       </c>
       <c r="F32">
-        <v>0.001702668846733847</v>
+        <v>0.2801831451702629</v>
       </c>
       <c r="G32">
-        <v>0.001675016610525501</v>
+        <v>0.226031132864475</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1133,22 +1133,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.5549746010412585</v>
+        <v>-1.528943042490164</v>
       </c>
       <c r="C33">
-        <v>0.2845902785549136</v>
+        <v>0.8683985509869465</v>
       </c>
       <c r="D33">
-        <v>0.1397222341679755</v>
+        <v>0.2617269193166057</v>
       </c>
       <c r="E33">
-        <v>0.6124935700794771</v>
+        <v>0.9324706617569862</v>
       </c>
       <c r="F33">
-        <v>0.429114651454894</v>
+        <v>0.7452019214775635</v>
       </c>
       <c r="G33">
-        <v>0.2071808505703237</v>
+        <v>0.9243556951826217</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.5288835828498372</v>
+        <v>-0.02694302719720597</v>
       </c>
       <c r="C34">
-        <v>0.3664776805802936</v>
+        <v>0.01229769811056326</v>
       </c>
       <c r="D34">
-        <v>0.2520750815891842</v>
+        <v>0.01481798346889807</v>
       </c>
       <c r="E34">
-        <v>0.3890888673862431</v>
+        <v>0.01783614133498414</v>
       </c>
       <c r="F34">
-        <v>0.2763098203340492</v>
+        <v>0.01879943926549101</v>
       </c>
       <c r="G34">
-        <v>0.2059521867575809</v>
+        <v>0.01502468498445586</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.02874376685216458</v>
+        <v>-1.984856377776198</v>
       </c>
       <c r="C35">
-        <v>0.01048011259207494</v>
+        <v>0.6856565713939741</v>
       </c>
       <c r="D35">
-        <v>0.01333013861955932</v>
+        <v>0.006730730945480873</v>
       </c>
       <c r="E35">
-        <v>0.02174079864256735</v>
+        <v>1.786243098877764</v>
       </c>
       <c r="F35">
-        <v>0.01817193981911403</v>
+        <v>0.975201529497191</v>
       </c>
       <c r="G35">
-        <v>0.01626519828593954</v>
+        <v>0.4704531521227585</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-1.903522277006781</v>
+        <v>-0.7576430343739662</v>
       </c>
       <c r="C36">
-        <v>0.600334032461924</v>
+        <v>0.2655176533088232</v>
       </c>
       <c r="D36">
-        <v>0.1561969630366154</v>
+        <v>0.2399290658903068</v>
       </c>
       <c r="E36">
-        <v>1.34511996453372</v>
+        <v>0.4656303765995252</v>
       </c>
       <c r="F36">
-        <v>1.162547179736046</v>
+        <v>0.3740021823489714</v>
       </c>
       <c r="G36">
-        <v>0.4463868578079758</v>
+        <v>0.3232956474050929</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1225,22 +1225,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-1.097908781762692</v>
+        <v>-0.0219827149279209</v>
       </c>
       <c r="C37">
-        <v>0.8324724719604752</v>
+        <v>0.01185659651064557</v>
       </c>
       <c r="D37">
-        <v>-0.1364397696752365</v>
+        <v>0.0127643059186368</v>
       </c>
       <c r="E37">
-        <v>1.09542234890025</v>
+        <v>0.0165589772827302</v>
       </c>
       <c r="F37">
-        <v>0.6275304979842156</v>
+        <v>0.01468766735368358</v>
       </c>
       <c r="G37">
-        <v>0.4428690547370583</v>
+        <v>0.01563313479025746</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1248,22 +1248,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.02563719494914384</v>
+        <v>-0.02146475344675685</v>
       </c>
       <c r="C38">
-        <v>0.01054034741784223</v>
+        <v>0.009741823892695333</v>
       </c>
       <c r="D38">
-        <v>0.01413631604725864</v>
+        <v>0.01137011012929729</v>
       </c>
       <c r="E38">
-        <v>0.01699122288081619</v>
+        <v>0.0183305610722166</v>
       </c>
       <c r="F38">
-        <v>0.01793303613475812</v>
+        <v>0.01567498850321506</v>
       </c>
       <c r="G38">
-        <v>0.016918455913859</v>
+        <v>0.01456455305069452</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1271,22 +1271,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.6306030789926977</v>
+        <v>-1.534320382730351</v>
       </c>
       <c r="C39">
-        <v>0.4786338541925001</v>
+        <v>0.6372714919271045</v>
       </c>
       <c r="D39">
-        <v>0.09419889346145381</v>
+        <v>-0.34578791103254</v>
       </c>
       <c r="E39">
-        <v>0.5457887758517275</v>
+        <v>1.550911898159115</v>
       </c>
       <c r="F39">
-        <v>0.408086462701384</v>
+        <v>0.7097249655493251</v>
       </c>
       <c r="G39">
-        <v>0.2621577973692702</v>
+        <v>0.8153931257517719</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1294,22 +1294,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-1.230189082114942</v>
+        <v>-1.440203718388659</v>
       </c>
       <c r="C40">
-        <v>0.5869266872174757</v>
+        <v>0.6564625803491646</v>
       </c>
       <c r="D40">
-        <v>0.03618860241717455</v>
+        <v>0.1107073659819786</v>
       </c>
       <c r="E40">
-        <v>0.8650186197646825</v>
+        <v>1.426165831307541</v>
       </c>
       <c r="F40">
-        <v>0.789042856488425</v>
+        <v>0.6044280933116248</v>
       </c>
       <c r="G40">
-        <v>0.7436978471207872</v>
+        <v>0.5219448501877628</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1317,22 +1317,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.9191358848756488</v>
+        <v>-0.002301224839262539</v>
       </c>
       <c r="C41">
-        <v>0.5958329164646891</v>
+        <v>0.001291391494663094</v>
       </c>
       <c r="D41">
-        <v>-0.2471133223829649</v>
+        <v>0.001079514837965962</v>
       </c>
       <c r="E41">
-        <v>1.222403813594393</v>
+        <v>0.001911819064193888</v>
       </c>
       <c r="F41">
-        <v>0.5572200661185422</v>
+        <v>0.001558347214233129</v>
       </c>
       <c r="G41">
-        <v>0.5271111591788941</v>
+        <v>0.001527002552495829</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1340,22 +1340,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-1.896823815280002</v>
+        <v>-1.517971378395258</v>
       </c>
       <c r="C42">
-        <v>0.8697081035380081</v>
+        <v>0.08510362104132552</v>
       </c>
       <c r="D42">
-        <v>0.3807514360700868</v>
+        <v>-0.08758880161651134</v>
       </c>
       <c r="E42">
-        <v>1.185473805547644</v>
+        <v>1.28776501038442</v>
       </c>
       <c r="F42">
-        <v>0.8586778542352003</v>
+        <v>0.8711781318822722</v>
       </c>
       <c r="G42">
-        <v>0.4030136656416138</v>
+        <v>1.005190721700891</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1363,22 +1363,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.002184170099171713</v>
+        <v>-1.094498051546412</v>
       </c>
       <c r="C43">
-        <v>0.0009359909334184969</v>
+        <v>0.6924586064536769</v>
       </c>
       <c r="D43">
-        <v>0.001209811465199193</v>
+        <v>0.1568465851333412</v>
       </c>
       <c r="E43">
-        <v>0.001594393953127728</v>
+        <v>0.835787417319024</v>
       </c>
       <c r="F43">
-        <v>0.001724409053879741</v>
+        <v>0.5521319104993853</v>
       </c>
       <c r="G43">
-        <v>0.001680315657134639</v>
+        <v>0.5599322647861429</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1386,22 +1386,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-1.153857850414986</v>
+        <v>-1.242541052559105</v>
       </c>
       <c r="C44">
-        <v>0.4321057888419246</v>
+        <v>0.3474937218239523</v>
       </c>
       <c r="D44">
-        <v>0.3154314827877325</v>
+        <v>0.1348706116071454</v>
       </c>
       <c r="E44">
-        <v>0.6696626319908906</v>
+        <v>1.113867664729876</v>
       </c>
       <c r="F44">
-        <v>0.6822519906476548</v>
+        <v>0.5802333599801358</v>
       </c>
       <c r="G44">
-        <v>0.7463844262266124</v>
+        <v>0.5548010225086412</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1409,22 +1409,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.02709214656609832</v>
+        <v>-1.749527511123766</v>
       </c>
       <c r="C45">
-        <v>0.0110013396459475</v>
+        <v>1.132544636093251</v>
       </c>
       <c r="D45">
-        <v>0.01308537716336466</v>
+        <v>-0.1700264841204209</v>
       </c>
       <c r="E45">
-        <v>0.01740443953631236</v>
+        <v>1.751068657066106</v>
       </c>
       <c r="F45">
-        <v>0.01946949590359378</v>
+        <v>1.050210320235789</v>
       </c>
       <c r="G45">
-        <v>0.01734144529798883</v>
+        <v>0.01650966133264645</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1432,22 +1432,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.7166187679883335</v>
+        <v>-1.610509105648397</v>
       </c>
       <c r="C46">
-        <v>0.3462704046167193</v>
+        <v>0.2562007997656587</v>
       </c>
       <c r="D46">
-        <v>0.07223437394579033</v>
+        <v>-0.05846501780034956</v>
       </c>
       <c r="E46">
-        <v>0.6714657311369409</v>
+        <v>1.662626806220151</v>
       </c>
       <c r="F46">
-        <v>0.4446435369787313</v>
+        <v>0.7248591392586766</v>
       </c>
       <c r="G46">
-        <v>0.3406606853883925</v>
+        <v>0.8947953812328747</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1455,22 +1455,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-1.251919772828478</v>
+        <v>-1.36200178131781</v>
       </c>
       <c r="C47">
-        <v>0.6389621214787633</v>
+        <v>0.8299045953448547</v>
       </c>
       <c r="D47">
-        <v>-0.3634068115625084</v>
+        <v>-0.01666265495077729</v>
       </c>
       <c r="E47">
-        <v>1.543237530520652</v>
+        <v>1.204810744298081</v>
       </c>
       <c r="F47">
-        <v>0.574841645782917</v>
+        <v>0.6323912949150388</v>
       </c>
       <c r="G47">
-        <v>0.7762779300958174</v>
+        <v>0.5163039345940569</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1478,22 +1478,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-1.57177536750395</v>
+        <v>-0.6766005669036244</v>
       </c>
       <c r="C48">
-        <v>0.7803541706697629</v>
+        <v>0.2369060588613266</v>
       </c>
       <c r="D48">
-        <v>-0.09073921359414491</v>
+        <v>0.1818314118883929</v>
       </c>
       <c r="E48">
-        <v>1.223862712660253</v>
+        <v>0.379357861097354</v>
       </c>
       <c r="F48">
-        <v>1.055961456478821</v>
+        <v>0.3792481640074807</v>
       </c>
       <c r="G48">
-        <v>0.3485733256521037</v>
+        <v>0.3963606992052247</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1501,22 +1501,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.02146565474629959</v>
+        <v>-2.06657344457428</v>
       </c>
       <c r="C49">
-        <v>0.0103115416531767</v>
+        <v>0.4763385075158193</v>
       </c>
       <c r="D49">
-        <v>0.01212426721884549</v>
+        <v>-0.1716142096177023</v>
       </c>
       <c r="E49">
-        <v>0.01501957707903509</v>
+        <v>1.69907846527169</v>
       </c>
       <c r="F49">
-        <v>0.01635479888601398</v>
+        <v>1.097381729039245</v>
       </c>
       <c r="G49">
-        <v>0.01638033409638107</v>
+        <v>0.5709150919157058</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1524,22 +1524,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-1.285047685015082</v>
+        <v>-0.5354619132491724</v>
       </c>
       <c r="C50">
-        <v>0.4878978956508938</v>
+        <v>0.2136195952530335</v>
       </c>
       <c r="D50">
-        <v>0.1105757027680827</v>
+        <v>0.2675241806542181</v>
       </c>
       <c r="E50">
-        <v>1.271117967389947</v>
+        <v>0.4591492002144144</v>
       </c>
       <c r="F50">
-        <v>0.6781571368517005</v>
+        <v>0.2780914254744424</v>
       </c>
       <c r="G50">
-        <v>0.5879880393580893</v>
+        <v>0.2084514606761605</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1547,22 +1547,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-1.71617192945818</v>
+        <v>-0.01944536046111273</v>
       </c>
       <c r="C51">
-        <v>0.07431251603096468</v>
+        <v>0.01337445924707574</v>
       </c>
       <c r="D51">
-        <v>-0.2477432011764481</v>
+        <v>0.008381533514657936</v>
       </c>
       <c r="E51">
-        <v>1.003314720355896</v>
+        <v>0.01603359877190231</v>
       </c>
       <c r="F51">
-        <v>1.132906713706856</v>
+        <v>0.01685316089089765</v>
       </c>
       <c r="G51">
-        <v>1.305500006294413</v>
+        <v>0.01142418066514095</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1570,22 +1570,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-1.280621126836556</v>
+        <v>-0.7921057001203402</v>
       </c>
       <c r="C52">
-        <v>0.6167721241100032</v>
+        <v>0.2397549925852685</v>
       </c>
       <c r="D52">
-        <v>-0.1936944278401377</v>
+        <v>0.1206146312259317</v>
       </c>
       <c r="E52">
-        <v>0.9143777548376395</v>
+        <v>0.5244300658325882</v>
       </c>
       <c r="F52">
-        <v>0.8934441085222425</v>
+        <v>0.5134309574605422</v>
       </c>
       <c r="G52">
-        <v>0.8414945166790757</v>
+        <v>0.4903086264773611</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1593,22 +1593,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.002212319119966318</v>
+        <v>-0.1581704126945067</v>
       </c>
       <c r="C53">
-        <v>0.001533384118077188</v>
+        <v>0.07762876663082297</v>
       </c>
       <c r="D53">
-        <v>0.001047376004874716</v>
+        <v>0.0951133898727157</v>
       </c>
       <c r="E53">
-        <v>0.001800536461079304</v>
+        <v>0.1454999086054716</v>
       </c>
       <c r="F53">
-        <v>0.001465851568189006</v>
+        <v>0.1082195666447806</v>
       </c>
       <c r="G53">
-        <v>0.001405771870652601</v>
+        <v>0.0908406438451024</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1616,22 +1616,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-1.351035258683622</v>
+        <v>-0.02617440140383171</v>
       </c>
       <c r="C54">
-        <v>0.8646486802100324</v>
+        <v>0.01556889899400613</v>
       </c>
       <c r="D54">
-        <v>-0.1047919649987339</v>
+        <v>0.008531304034731157</v>
       </c>
       <c r="E54">
-        <v>1.379326697450808</v>
+        <v>0.0156345098875402</v>
       </c>
       <c r="F54">
-        <v>0.8292927158120957</v>
+        <v>0.01914008646339815</v>
       </c>
       <c r="G54">
-        <v>-0.1062665215713734</v>
+        <v>0.01749799642693732</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1639,22 +1639,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-1.367645068607081</v>
+        <v>-0.612601999801328</v>
       </c>
       <c r="C55">
-        <v>1.120449988458344</v>
+        <v>0.4317397171560105</v>
       </c>
       <c r="D55">
-        <v>-0.02484582095683714</v>
+        <v>0.02829336435278432</v>
       </c>
       <c r="E55">
-        <v>1.243782133988179</v>
+        <v>0.5463834115643964</v>
       </c>
       <c r="F55">
-        <v>0.4639726116335859</v>
+        <v>0.3772954722141071</v>
       </c>
       <c r="G55">
-        <v>0.3810049636618202</v>
+        <v>0.3439666210364965</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1662,22 +1662,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.7753890670912454</v>
+        <v>-0.02327491268840283</v>
       </c>
       <c r="C56">
-        <v>0.2426429297309148</v>
+        <v>0.0109430713265294</v>
       </c>
       <c r="D56">
-        <v>0.1355181785767633</v>
+        <v>0.009748320983810503</v>
       </c>
       <c r="E56">
-        <v>0.7550499529418574</v>
+        <v>0.0149362060518769</v>
       </c>
       <c r="F56">
-        <v>0.3924202864442578</v>
+        <v>0.01783257260745872</v>
       </c>
       <c r="G56">
-        <v>0.3394404720446814</v>
+        <v>0.0185541869459737</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1685,22 +1685,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-1.878120662049144</v>
+        <v>-2.019863817820972</v>
       </c>
       <c r="C57">
-        <v>1.469375377724228</v>
+        <v>0.4003455953265551</v>
       </c>
       <c r="D57">
-        <v>0.01464052248265325</v>
+        <v>-0.1474865083285389</v>
       </c>
       <c r="E57">
-        <v>1.561581640078781</v>
+        <v>2.147728704216954</v>
       </c>
       <c r="F57">
-        <v>0.725599433581598</v>
+        <v>0.8628365171245874</v>
       </c>
       <c r="G57">
-        <v>0.2613589835838164</v>
+        <v>0.4415339015911198</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1708,22 +1708,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.6687629591465025</v>
+        <v>-1.299064853115459</v>
       </c>
       <c r="C58">
-        <v>0.3632912628096587</v>
+        <v>0.5121159739805199</v>
       </c>
       <c r="D58">
-        <v>0.1464739152779847</v>
+        <v>-0.1414175503543811</v>
       </c>
       <c r="E58">
-        <v>0.595796299103056</v>
+        <v>1.356536520620594</v>
       </c>
       <c r="F58">
-        <v>0.3940744995135363</v>
+        <v>0.5529296695588101</v>
       </c>
       <c r="G58">
-        <v>0.3547492916558708</v>
+        <v>0.6534272341780216</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1731,22 +1731,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.002383054904887237</v>
+        <v>-0.5942777677871952</v>
       </c>
       <c r="C59">
-        <v>0.000966370548691499</v>
+        <v>0.3470949980028424</v>
       </c>
       <c r="D59">
-        <v>0.001329423037232947</v>
+        <v>0.2412329490182409</v>
       </c>
       <c r="E59">
-        <v>0.001892787967030481</v>
+        <v>0.5591979335831169</v>
       </c>
       <c r="F59">
-        <v>0.001867514309201239</v>
+        <v>0.3995686358692867</v>
       </c>
       <c r="G59">
-        <v>0.0013690224011812</v>
+        <v>0.1768605489197678</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1754,22 +1754,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-1.491440192668429</v>
+        <v>-1.327853327334363</v>
       </c>
       <c r="C60">
-        <v>0.5099290191735727</v>
+        <v>0.4978043910541836</v>
       </c>
       <c r="D60">
-        <v>0.1016882559418279</v>
+        <v>0.01291880407604643</v>
       </c>
       <c r="E60">
-        <v>1.321420479166529</v>
+        <v>1.006855004031995</v>
       </c>
       <c r="F60">
-        <v>0.6076497868176554</v>
+        <v>0.8103190890639684</v>
       </c>
       <c r="G60">
-        <v>0.6591284659239874</v>
+        <v>0.6857695201006123</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1777,22 +1777,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.02288910120980111</v>
+        <v>-0.2246765468068924</v>
       </c>
       <c r="C61">
-        <v>0.01357075215355143</v>
+        <v>0.08591191455111243</v>
       </c>
       <c r="D61">
-        <v>0.009644898393461552</v>
+        <v>0.0915169602615985</v>
       </c>
       <c r="E61">
-        <v>0.01490457917001885</v>
+        <v>0.138110988398693</v>
       </c>
       <c r="F61">
-        <v>0.01801177857037311</v>
+        <v>0.1406719102444035</v>
       </c>
       <c r="G61">
-        <v>0.01598337895191256</v>
+        <v>0.1433692164948482</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1800,22 +1800,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-1.557702088105299</v>
+        <v>-0.659953489220692</v>
       </c>
       <c r="C62">
-        <v>0.5838282716146285</v>
+        <v>0.3017403303565863</v>
       </c>
       <c r="D62">
-        <v>-0.03840502374346744</v>
+        <v>0.2200956048353473</v>
       </c>
       <c r="E62">
-        <v>1.567147750502592</v>
+        <v>0.3797410595726314</v>
       </c>
       <c r="F62">
-        <v>0.6857660449746105</v>
+        <v>0.3612070614816774</v>
       </c>
       <c r="G62">
-        <v>0.8632895688700152</v>
+        <v>0.3227855320677691</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1823,22 +1823,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-1.319715294837885</v>
+        <v>-1.350134284048925</v>
       </c>
       <c r="C63">
-        <v>1.155691688191888</v>
+        <v>1.057887289241035</v>
       </c>
       <c r="D63">
-        <v>0.07168137012517617</v>
+        <v>0.02921092118247151</v>
       </c>
       <c r="E63">
-        <v>1.180906040111069</v>
+        <v>1.291610510512599</v>
       </c>
       <c r="F63">
-        <v>0.5913233538564738</v>
+        <v>0.6228913794081132</v>
       </c>
       <c r="G63">
-        <v>0.3404740262382248</v>
+        <v>0.1657730032783276</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1846,22 +1846,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-1.74273876319264</v>
+        <v>-0.6658538204588229</v>
       </c>
       <c r="C64">
-        <v>0.9888168541621207</v>
+        <v>0.3431344199379286</v>
       </c>
       <c r="D64">
-        <v>-0.1355737750085412</v>
+        <v>0.1855037377287124</v>
       </c>
       <c r="E64">
-        <v>1.719412088013521</v>
+        <v>0.6563871431702203</v>
       </c>
       <c r="F64">
-        <v>0.7735264529102237</v>
+        <v>0.3783573528603487</v>
       </c>
       <c r="G64">
-        <v>0.5350464633921385</v>
+        <v>0.3043642416327848</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1869,22 +1869,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.5820647870967108</v>
+        <v>-0.3888059420429706</v>
       </c>
       <c r="C65">
-        <v>0.2978860192281863</v>
+        <v>0.2634192295375992</v>
       </c>
       <c r="D65">
-        <v>0.1224338052941403</v>
+        <v>0.1159301038829237</v>
       </c>
       <c r="E65">
-        <v>0.3959488742006926</v>
+        <v>0.4207551709757056</v>
       </c>
       <c r="F65">
-        <v>0.3707744816646235</v>
+        <v>0.2757877010554096</v>
       </c>
       <c r="G65">
-        <v>0.2901411550003179</v>
+        <v>0.2362074143539225</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1892,22 +1892,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.7945623545753018</v>
+        <v>-0.7252774781417893</v>
       </c>
       <c r="C66">
-        <v>0.4026630918669852</v>
+        <v>0.2483755711503907</v>
       </c>
       <c r="D66">
-        <v>0.3063164777987027</v>
+        <v>0.183650226743193</v>
       </c>
       <c r="E66">
-        <v>0.4262484252911605</v>
+        <v>0.7788155167701464</v>
       </c>
       <c r="F66">
-        <v>0.4706292545456129</v>
+        <v>0.3500661725563907</v>
       </c>
       <c r="G66">
-        <v>0.3495759416316263</v>
+        <v>0.2591158544886887</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1915,22 +1915,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.03367729943075106</v>
+        <v>-0.002607551001288822</v>
       </c>
       <c r="C67">
-        <v>0.01481431802392559</v>
+        <v>0.001137631452455949</v>
       </c>
       <c r="D67">
-        <v>0.01672820988088212</v>
+        <v>0.001479804409356993</v>
       </c>
       <c r="E67">
-        <v>0.02136868078268211</v>
+        <v>0.001931704798109688</v>
       </c>
       <c r="F67">
-        <v>0.0187922037962167</v>
+        <v>0.001668958022888027</v>
       </c>
       <c r="G67">
-        <v>0.01646739277010238</v>
+        <v>0.001646927096433871</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1938,22 +1938,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-1.858863542339687</v>
+        <v>-0.6124917662573502</v>
       </c>
       <c r="C68">
-        <v>0.4605336008669261</v>
+        <v>0.228480712130395</v>
       </c>
       <c r="D68">
-        <v>0.009633013055787884</v>
+        <v>0.2822341995919221</v>
       </c>
       <c r="E68">
-        <v>1.626288180886314</v>
+        <v>0.3745237495914367</v>
       </c>
       <c r="F68">
-        <v>0.799305006773347</v>
+        <v>0.38778752210672</v>
       </c>
       <c r="G68">
-        <v>0.3851511299101797</v>
+        <v>0.2740841261178072</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1961,22 +1961,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.02205068803647089</v>
+        <v>-2.459348163591473</v>
       </c>
       <c r="C69">
-        <v>0.01204057609342561</v>
+        <v>0.4875411331347711</v>
       </c>
       <c r="D69">
-        <v>0.01152048007899265</v>
+        <v>-0.6812482171348466</v>
       </c>
       <c r="E69">
-        <v>0.01628561843376666</v>
+        <v>2.693285411945295</v>
       </c>
       <c r="F69">
-        <v>0.01691051134354693</v>
+        <v>0.7573799711716017</v>
       </c>
       <c r="G69">
-        <v>0.01460726154190992</v>
+        <v>0.8402724218576523</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1984,22 +1984,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.02468289582937125</v>
+        <v>-0.6586130977168244</v>
       </c>
       <c r="C70">
-        <v>0.01288463547296191</v>
+        <v>0.4105515219738767</v>
       </c>
       <c r="D70">
-        <v>0.01119671680409449</v>
+        <v>0.1240062298431935</v>
       </c>
       <c r="E70">
-        <v>0.01505960393375755</v>
+        <v>0.5870154373477765</v>
       </c>
       <c r="F70">
-        <v>0.01626545774806801</v>
+        <v>0.4206986891672599</v>
       </c>
       <c r="G70">
-        <v>0.01951699024572555</v>
+        <v>0.2698949896816408</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2007,22 +2007,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-2.016198040339152</v>
+        <v>-1.158205078362357</v>
       </c>
       <c r="C71">
-        <v>0.6319323688756557</v>
+        <v>0.1319700030104743</v>
       </c>
       <c r="D71">
-        <v>0.1181980180044805</v>
+        <v>-0.007424317762211865</v>
       </c>
       <c r="E71">
-        <v>1.903882533878674</v>
+        <v>0.8065390305259801</v>
       </c>
       <c r="F71">
-        <v>0.6026469429127781</v>
+        <v>0.7636836746013671</v>
       </c>
       <c r="G71">
-        <v>0.9505967651782388</v>
+        <v>0.7494261593101786</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2030,22 +2030,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-1.773770140271005</v>
+        <v>-0.8135638813035394</v>
       </c>
       <c r="C72">
-        <v>1.316369693127293</v>
+        <v>0.2241604431477651</v>
       </c>
       <c r="D72">
-        <v>0.0164371769540583</v>
+        <v>0.1207555760060164</v>
       </c>
       <c r="E72">
-        <v>1.632515243585109</v>
+        <v>0.5212069913679414</v>
       </c>
       <c r="F72">
-        <v>0.8061201585612999</v>
+        <v>0.4947631698417071</v>
       </c>
       <c r="G72">
-        <v>0.5696506889890477</v>
+        <v>0.5073413886692812</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2053,22 +2053,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.02069269474720127</v>
+        <v>-0.01757306933790531</v>
       </c>
       <c r="C73">
-        <v>0.00944241777816897</v>
+        <v>0.009998527343524051</v>
       </c>
       <c r="D73">
-        <v>0.01242824647073934</v>
+        <v>0.008654538667230668</v>
       </c>
       <c r="E73">
-        <v>0.01884477668408279</v>
+        <v>0.01632516110470362</v>
       </c>
       <c r="F73">
-        <v>0.01413039908363448</v>
+        <v>0.01405099515616168</v>
       </c>
       <c r="G73">
-        <v>0.01345840139870062</v>
+        <v>0.0139007578810419</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2076,22 +2076,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-1.320739891089861</v>
+        <v>-0.02422660462352224</v>
       </c>
       <c r="C74">
-        <v>0.3417517063026118</v>
+        <v>0.01091122560634245</v>
       </c>
       <c r="D74">
-        <v>0.1856654889793993</v>
+        <v>0.0114540005652823</v>
       </c>
       <c r="E74">
-        <v>0.808988920612956</v>
+        <v>0.01642206094388949</v>
       </c>
       <c r="F74">
-        <v>0.612612625543037</v>
+        <v>0.01658233206951106</v>
       </c>
       <c r="G74">
-        <v>0.9906533651087412</v>
+        <v>0.01863856297508569</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2099,22 +2099,22 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-1.563934457957131</v>
+        <v>-0.02835157961850136</v>
       </c>
       <c r="C75">
-        <v>0.4941726527970809</v>
+        <v>0.01293746412537866</v>
       </c>
       <c r="D75">
-        <v>-0.07852554953991032</v>
+        <v>0.01066709872677687</v>
       </c>
       <c r="E75">
-        <v>0.7907485411971922</v>
+        <v>0.01934260209031068</v>
       </c>
       <c r="F75">
-        <v>1.00993673581013</v>
+        <v>0.01869735744609531</v>
       </c>
       <c r="G75">
-        <v>0.8489538971563899</v>
+        <v>0.01811719521515381</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2122,22 +2122,22 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.02492398691942559</v>
+        <v>-1.54525933390593</v>
       </c>
       <c r="C76">
-        <v>0.01206285602783034</v>
+        <v>0.5542611803701188</v>
       </c>
       <c r="D76">
-        <v>0.01333356774517309</v>
+        <v>-0.3814654694464358</v>
       </c>
       <c r="E76">
-        <v>0.01592727117167073</v>
+        <v>1.729732386249595</v>
       </c>
       <c r="F76">
-        <v>0.01981035723192083</v>
+        <v>0.9442778446879522</v>
       </c>
       <c r="G76">
-        <v>0.0142629290515047</v>
+        <v>0.7241377366199616</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2145,22 +2145,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-2.166013478499389</v>
+        <v>-1.191818905245005</v>
       </c>
       <c r="C77">
-        <v>1.117069598284191</v>
+        <v>0.478934171121383</v>
       </c>
       <c r="D77">
-        <v>0.1561187963610147</v>
+        <v>0.3111306104101466</v>
       </c>
       <c r="E77">
-        <v>1.818893063273932</v>
+        <v>1.284663606780887</v>
       </c>
       <c r="F77">
-        <v>1.14142429126107</v>
+        <v>0.9039393276914973</v>
       </c>
       <c r="G77">
-        <v>0.1875951934914497</v>
+        <v>0.0742003905752676</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2168,22 +2168,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-1.349230685641107</v>
+        <v>-0.5480795742580512</v>
       </c>
       <c r="C78">
-        <v>0.3256013037998639</v>
+        <v>0.2532391267049771</v>
       </c>
       <c r="D78">
-        <v>-0.04001302183085035</v>
+        <v>0.2707410981029229</v>
       </c>
       <c r="E78">
-        <v>1.628330688008032</v>
+        <v>0.2316741082865681</v>
       </c>
       <c r="F78">
-        <v>0.6304913115137009</v>
+        <v>0.3447852926989327</v>
       </c>
       <c r="G78">
-        <v>0.8100807746137265</v>
+        <v>0.337672568267103</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2191,22 +2191,22 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-1.358460606167044</v>
+        <v>-0.202420923496432</v>
       </c>
       <c r="C79">
-        <v>1.006734022968652</v>
+        <v>0.07068560215070364</v>
       </c>
       <c r="D79">
-        <v>0.2149213830665247</v>
+        <v>0.09191668603706055</v>
       </c>
       <c r="E79">
-        <v>0.5771496483494908</v>
+        <v>0.1826773932273712</v>
       </c>
       <c r="F79">
-        <v>0.6802181594168072</v>
+        <v>0.1237640374667153</v>
       </c>
       <c r="G79">
-        <v>0.6735567258839262</v>
+        <v>0.09095626597692386</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2214,22 +2214,22 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-2.698418729959611E-06</v>
+        <v>-1.888372177608479</v>
       </c>
       <c r="C80">
-        <v>0.0008488599296640732</v>
+        <v>0.7465382488266501</v>
       </c>
       <c r="D80">
-        <v>0.001058022329322627</v>
+        <v>0.2633389806801724</v>
       </c>
       <c r="E80">
-        <v>0.001808610913578576</v>
+        <v>1.683770491636081</v>
       </c>
       <c r="F80">
-        <v>0.001287038729656902</v>
+        <v>0.9382245503255243</v>
       </c>
       <c r="G80">
-        <v>0.001179211970917511</v>
+        <v>0.2917716698729206</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2237,22 +2237,22 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-1.52692580929862</v>
+        <v>-1.116971107948361</v>
       </c>
       <c r="C81">
-        <v>1.137162234651562</v>
+        <v>0.5785197779541003</v>
       </c>
       <c r="D81">
-        <v>0.230298777339819</v>
+        <v>0.03063390322232612</v>
       </c>
       <c r="E81">
-        <v>1.320959444657956</v>
+        <v>1.091741013266256</v>
       </c>
       <c r="F81">
-        <v>0.5605302874833635</v>
+        <v>0.6228418481873852</v>
       </c>
       <c r="G81">
-        <v>0.1875097284553074</v>
+        <v>0.4693083871611403</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2260,22 +2260,22 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.5498231502911828</v>
+        <v>-0.951778681772219</v>
       </c>
       <c r="C82">
-        <v>0.2291635966832077</v>
+        <v>0.6374172923650359</v>
       </c>
       <c r="D82">
-        <v>0.1596694174649575</v>
+        <v>0.1344798430966307</v>
       </c>
       <c r="E82">
-        <v>0.5089674352160259</v>
+        <v>0.9949707455000344</v>
       </c>
       <c r="F82">
-        <v>0.3147138670475338</v>
+        <v>0.5783334317563712</v>
       </c>
       <c r="G82">
-        <v>0.230813721631789</v>
+        <v>0.39851739590422</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2283,22 +2283,22 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.02306200292936768</v>
+        <v>-0.001764191241624021</v>
       </c>
       <c r="C83">
-        <v>0.01486155589651676</v>
+        <v>0.0004777710089922418</v>
       </c>
       <c r="D83">
-        <v>0.009708530162195752</v>
+        <v>0.001257730214672692</v>
       </c>
       <c r="E83">
-        <v>0.0153484051899108</v>
+        <v>0.002011145991467999</v>
       </c>
       <c r="F83">
-        <v>0.01649952099019215</v>
+        <v>0.001267054385939476</v>
       </c>
       <c r="G83">
-        <v>0.01633748303861241</v>
+        <v>0.001079071913427286</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2306,22 +2306,22 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-2.211765418819213</v>
+        <v>-0.7059277549216449</v>
       </c>
       <c r="C84">
-        <v>0.4291434536819809</v>
+        <v>0.6070760631464837</v>
       </c>
       <c r="D84">
-        <v>-0.02579550412978991</v>
+        <v>0.149160563841151</v>
       </c>
       <c r="E84">
-        <v>2.348702284463341</v>
+        <v>0.6074184306540479</v>
       </c>
       <c r="F84">
-        <v>1.079237181077765</v>
+        <v>0.3306767300466603</v>
       </c>
       <c r="G84">
-        <v>0.348427254761451</v>
+        <v>0.1566573362184688</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2329,22 +2329,22 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.2092626528052099</v>
+        <v>-0.002274969709378816</v>
       </c>
       <c r="C85">
-        <v>0.07393484504792772</v>
+        <v>0.001129078963170889</v>
       </c>
       <c r="D85">
-        <v>0.09628446398061713</v>
+        <v>0.001326105397015662</v>
       </c>
       <c r="E85">
-        <v>0.1715233505711297</v>
+        <v>0.001802629384099302</v>
       </c>
       <c r="F85">
-        <v>0.1207848880134607</v>
+        <v>0.001657638336274136</v>
       </c>
       <c r="G85">
-        <v>0.1185210559516251</v>
+        <v>0.001448874613310702</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2352,22 +2352,22 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-1.256042031115029</v>
+        <v>-0.01883956256927269</v>
       </c>
       <c r="C86">
-        <v>0.6202405376395806</v>
+        <v>0.01262630132840926</v>
       </c>
       <c r="D86">
-        <v>0.05924028815285248</v>
+        <v>0.007519958389484466</v>
       </c>
       <c r="E86">
-        <v>1.301992812024489</v>
+        <v>0.01648089041723109</v>
       </c>
       <c r="F86">
-        <v>1.004578874523872</v>
+        <v>0.01614037389247829</v>
       </c>
       <c r="G86">
-        <v>0.09532136707664113</v>
+        <v>0.012051884215064</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2375,22 +2375,22 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.00240794412346788</v>
+        <v>-0.02270998570556174</v>
       </c>
       <c r="C87">
-        <v>0.0009565612791875876</v>
+        <v>0.009287802410768471</v>
       </c>
       <c r="D87">
-        <v>0.001191686566027801</v>
+        <v>0.01330427228896011</v>
       </c>
       <c r="E87">
-        <v>0.002075225524760842</v>
+        <v>0.01904474984003665</v>
       </c>
       <c r="F87">
-        <v>0.001641133950714242</v>
+        <v>0.01519334575852234</v>
       </c>
       <c r="G87">
-        <v>0.001564343011853202</v>
+        <v>0.0146972389886037</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2398,22 +2398,22 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-3.391171196967895</v>
+        <v>-0.002186706843619453</v>
       </c>
       <c r="C88">
-        <v>1.788457406470443</v>
+        <v>0.001571026566188028</v>
       </c>
       <c r="D88">
-        <v>0.1816629542492515</v>
+        <v>0.0009911450432425065</v>
       </c>
       <c r="E88">
-        <v>2.446828437546052</v>
+        <v>0.001683591253925118</v>
       </c>
       <c r="F88">
-        <v>0.7680240297718561</v>
+        <v>0.001682993047996129</v>
       </c>
       <c r="G88">
-        <v>0.440673215609355</v>
+        <v>0.001257717973179272</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2421,22 +2421,22 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.002003653244161006</v>
+        <v>-0.02063472931026913</v>
       </c>
       <c r="C89">
-        <v>0.001077984218265318</v>
+        <v>0.01376014485178096</v>
       </c>
       <c r="D89">
-        <v>0.00124223881001522</v>
+        <v>0.008191949439414828</v>
       </c>
       <c r="E89">
-        <v>0.001759877394215692</v>
+        <v>0.01741896559384322</v>
       </c>
       <c r="F89">
-        <v>0.001376101573193181</v>
+        <v>0.01530671466172802</v>
       </c>
       <c r="G89">
-        <v>0.001451723149296324</v>
+        <v>0.01353851104142605</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2444,22 +2444,22 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-1.934967198811051</v>
+        <v>-1.72226873021948</v>
       </c>
       <c r="C90">
-        <v>1.697522083031734</v>
+        <v>0.1697235875161207</v>
       </c>
       <c r="D90">
-        <v>-0.09922032556695576</v>
+        <v>-0.1311864682840259</v>
       </c>
       <c r="E90">
-        <v>1.652738370115501</v>
+        <v>1.931028727675031</v>
       </c>
       <c r="F90">
-        <v>0.985552637570605</v>
+        <v>0.4633046893026236</v>
       </c>
       <c r="G90">
-        <v>0.3809011843941435</v>
+        <v>0.9647311617745443</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2467,22 +2467,22 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.02344191620223374</v>
+        <v>-0.7126634445794394</v>
       </c>
       <c r="C91">
-        <v>0.009804905465963187</v>
+        <v>0.3155378989203378</v>
       </c>
       <c r="D91">
-        <v>0.01478923186730786</v>
+        <v>0.231785025774249</v>
       </c>
       <c r="E91">
-        <v>0.02049598070423114</v>
+        <v>0.7617824554672213</v>
       </c>
       <c r="F91">
-        <v>0.01463778996093878</v>
+        <v>0.384016001801277</v>
       </c>
       <c r="G91">
-        <v>0.01258018998913777</v>
+        <v>0.09996750441249909</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2490,22 +2490,22 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-1.159730194526131</v>
+        <v>-0.002350102647710735</v>
       </c>
       <c r="C92">
-        <v>0.4315198780386898</v>
+        <v>0.001084811725511466</v>
       </c>
       <c r="D92">
-        <v>0.04873660799283151</v>
+        <v>0.001019218987423675</v>
       </c>
       <c r="E92">
-        <v>0.5881731930913485</v>
+        <v>0.001510303910103745</v>
       </c>
       <c r="F92">
-        <v>0.8255551609361282</v>
+        <v>0.002014507838696249</v>
       </c>
       <c r="G92">
-        <v>0.8064792857264803</v>
+        <v>0.001714469544008639</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2513,22 +2513,22 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-1.494420551809775</v>
+        <v>-1.449797143312396</v>
       </c>
       <c r="C93">
-        <v>0.4147620108173706</v>
+        <v>0.3176870646914901</v>
       </c>
       <c r="D93">
-        <v>-0.2518519826728662</v>
+        <v>-0.04659085643965063</v>
       </c>
       <c r="E93">
-        <v>1.431257937884155</v>
+        <v>1.404610816431373</v>
       </c>
       <c r="F93">
-        <v>1.030013505968894</v>
+        <v>0.8001082280687524</v>
       </c>
       <c r="G93">
-        <v>0.5615363176290523</v>
+        <v>0.7180084565391597</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2536,22 +2536,22 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.6674513977184546</v>
+        <v>-0.002196801852879835</v>
       </c>
       <c r="C94">
-        <v>0.2241868945277365</v>
+        <v>0.001037773996077368</v>
       </c>
       <c r="D94">
-        <v>0.2732438051953874</v>
+        <v>0.001533391047004104</v>
       </c>
       <c r="E94">
-        <v>0.6559941272169575</v>
+        <v>0.001699366705725438</v>
       </c>
       <c r="F94">
-        <v>0.4444778964236312</v>
+        <v>0.001572551567091909</v>
       </c>
       <c r="G94">
-        <v>0.2357498187518506</v>
+        <v>0.001393099518055088</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2559,22 +2559,22 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.6627216203942596</v>
+        <v>-0.5699024035460453</v>
       </c>
       <c r="C95">
-        <v>0.1450279958017912</v>
+        <v>0.1852647141458042</v>
       </c>
       <c r="D95">
-        <v>0.1798611853974125</v>
+        <v>0.1024678828680645</v>
       </c>
       <c r="E95">
-        <v>0.4197382038874737</v>
+        <v>0.3490036595230808</v>
       </c>
       <c r="F95">
-        <v>0.4578246746781193</v>
+        <v>0.4015593063000285</v>
       </c>
       <c r="G95">
-        <v>0.5006367918533322</v>
+        <v>0.3829904909080603</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2582,22 +2582,22 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-1.35759990765607</v>
+        <v>-0.02065168525756071</v>
       </c>
       <c r="C96">
-        <v>0.816988596068106</v>
+        <v>0.01341874411411497</v>
       </c>
       <c r="D96">
-        <v>-0.179594026443127</v>
+        <v>0.006751945211711631</v>
       </c>
       <c r="E96">
-        <v>1.213942698701312</v>
+        <v>0.01624735410876195</v>
       </c>
       <c r="F96">
-        <v>0.5600863271831805</v>
+        <v>0.01630423088208884</v>
       </c>
       <c r="G96">
-        <v>0.6716450461658912</v>
+        <v>0.01493942579651816</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2605,22 +2605,22 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-1.677182152113073</v>
+        <v>-1.675325875342278</v>
       </c>
       <c r="C97">
-        <v>0.8750026541770172</v>
+        <v>0.784751824311425</v>
       </c>
       <c r="D97">
-        <v>-0.492649437504144</v>
+        <v>0.2813574322133776</v>
       </c>
       <c r="E97">
-        <v>1.758671240631773</v>
+        <v>1.479521534849912</v>
       </c>
       <c r="F97">
-        <v>1.043083320602941</v>
+        <v>0.9192628407495911</v>
       </c>
       <c r="G97">
-        <v>0.5496186531555838</v>
+        <v>0.3507051778435184</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2628,22 +2628,22 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-1.866270357598923</v>
+        <v>-0.8683648065740805</v>
       </c>
       <c r="C98">
-        <v>1.321423265938996</v>
+        <v>0.3184214945741193</v>
       </c>
       <c r="D98">
-        <v>-0.66279799177795</v>
+        <v>0.2839896561556722</v>
       </c>
       <c r="E98">
-        <v>1.838865285849853</v>
+        <v>0.6251414148933622</v>
       </c>
       <c r="F98">
-        <v>1.096138652404158</v>
+        <v>0.4592569415047462</v>
       </c>
       <c r="G98">
-        <v>0.2464684896764927</v>
+        <v>0.3183464802283278</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2651,22 +2651,22 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-1.314489088325712</v>
+        <v>-1.670818017780818</v>
       </c>
       <c r="C99">
-        <v>0.4427655439219535</v>
+        <v>0.7461019698548634</v>
       </c>
       <c r="D99">
-        <v>0.5767932860100423</v>
+        <v>-0.5345999655072589</v>
       </c>
       <c r="E99">
-        <v>1.092141517648092</v>
+        <v>1.772259956375023</v>
       </c>
       <c r="F99">
-        <v>0.8107815481321987</v>
+        <v>1.150634290820769</v>
       </c>
       <c r="G99">
-        <v>0.1202426576983349</v>
+        <v>0.3708942327751265</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2674,22 +2674,22 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-1.079889276492798</v>
+        <v>-2.86483940744512E-06</v>
       </c>
       <c r="C100">
-        <v>0.7225627041895374</v>
+        <v>0.0006663262781259449</v>
       </c>
       <c r="D100">
-        <v>0.1691653876492031</v>
+        <v>0.001464596431793242</v>
       </c>
       <c r="E100">
-        <v>1.102549818122244</v>
+        <v>0.001857399975958455</v>
       </c>
       <c r="F100">
-        <v>0.5965266876090609</v>
+        <v>0.001146884115448603</v>
       </c>
       <c r="G100">
-        <v>0.3762969844037584</v>
+        <v>0.001143192074868709</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2697,22 +2697,22 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.02450369543637952</v>
+        <v>-1.368667685626449</v>
       </c>
       <c r="C101">
-        <v>0.01487063876605864</v>
+        <v>0.4665989346075078</v>
       </c>
       <c r="D101">
-        <v>0.01234404237316613</v>
+        <v>0.1310867444234166</v>
       </c>
       <c r="E101">
-        <v>0.0144996126495183</v>
+        <v>1.504989589959858</v>
       </c>
       <c r="F101">
-        <v>0.01560129825992989</v>
+        <v>0.9512717035598336</v>
       </c>
       <c r="G101">
-        <v>0.01812528498195395</v>
+        <v>0.0547303716734272</v>
       </c>
     </row>
   </sheetData>
